--- a/PDRMYE/CONTROL DE CAMBIOS/Control_Cambio_CPH_00001s.xlsx
+++ b/PDRMYE/CONTROL DE CAMBIOS/Control_Cambio_CPH_00001s.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Tipo documento</t>
   </si>
@@ -177,7 +177,10 @@
     <t>César Gabriel Rivera Cantú</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustes al realizar los cálculos que no se han de tipo mensual para que se considere el fondo total de las participaciones federales 
+    <t>Oswaldo Calzada Alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes al realizar los cálculos que no se han de tipo mensual para que se considere el fondo total de las participaciones federales pagadas
 FGP
 FFM70
 IEPS
@@ -190,7 +193,31 @@
 </t>
   </si>
   <si>
-    <t>Oswaldo Calzada Alba</t>
+    <t>IEPS</t>
+  </si>
+  <si>
+    <t>FGP</t>
+  </si>
+  <si>
+    <t>FFM70</t>
+  </si>
+  <si>
+    <t>FOFIR</t>
+  </si>
+  <si>
+    <t>ISAN</t>
+  </si>
+  <si>
+    <t>FEXHI</t>
+  </si>
+  <si>
+    <t>COMP ISAN</t>
+  </si>
+  <si>
+    <t>FEIEF</t>
+  </si>
+  <si>
+    <t>Funcionalidad de Recálcular -&gt; se agrega Botón</t>
   </si>
 </sst>
 </file>
@@ -316,6 +343,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -323,34 +377,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,7 +416,7 @@
         <xdr:cNvPr id="14" name="Imagen 13" descr="C:\Users\lenovo\Desktop\escudo rojo tesoreria 980x390.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,13 +455,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -442,7 +469,7 @@
         <xdr:cNvPr id="15" name="Conector recto 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -478,13 +505,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -492,7 +519,7 @@
         <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,13 +555,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -542,7 +569,7 @@
         <xdr:cNvPr id="17" name="Conector recto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -572,6 +599,44 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>583109</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33336" y="5310188"/>
+          <a:ext cx="5955211" cy="1128950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -840,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,109 +924,109 @@
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>45072</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -979,257 +1044,257 @@
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
@@ -1264,14 +1329,14 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -1286,119 +1351,186 @@
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="25">
-        <v>45062</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="B62" s="16">
+        <v>45077</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="B63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B64" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="B65" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B58:F58"/>
+  <mergeCells count="29">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A16:F44"/>
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B55:F55"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -1411,13 +1543,14 @@
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:F11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A16:F44"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1429,7 +1562,7 @@
           <x14:formula1>
             <xm:f>Datos!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B7 B59</xm:sqref>
+          <xm:sqref>B7 B63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1453,7 +1586,7 @@
           <x14:formula1>
             <xm:f>Datos!$F$1:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B60</xm:sqref>
+          <xm:sqref>B64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
